--- a/301-400.xlsx
+++ b/301-400.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2cd06d07815cea4/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\TFG\app-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F3F2F8-73C8-4655-BD09-5C1037212730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC601C-4924-46CF-8428-40D883CB51D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40351709-1910-43EB-8D0B-E0B819858047}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{40351709-1910-43EB-8D0B-E0B819858047}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="206">
   <si>
     <t>0085410</t>
   </si>
@@ -642,6 +642,18 @@
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES </t>
+  </si>
+  <si>
+    <t>correos</t>
+  </si>
+  <si>
+    <t>comprobado</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>FORMAENVIO</t>
   </si>
 </sst>
 </file>
@@ -749,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,9 +781,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,9 +791,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,9 +804,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,38 +1163,44 @@
   <dimension ref="B1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:9" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,8 +1219,14 @@
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,8 +1245,14 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1271,14 @@
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1297,14 @@
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,8 +1323,14 @@
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1349,14 @@
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1330,8 +1375,14 @@
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,8 +1401,14 @@
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1370,8 +1427,14 @@
       <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1453,14 @@
       <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1410,8 +1479,14 @@
       <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1430,8 +1505,14 @@
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1450,8 +1531,14 @@
       <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,8 +1557,14 @@
       <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1490,8 +1583,14 @@
       <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1510,8 +1609,14 @@
       <c r="G17" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,8 +1635,14 @@
       <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1550,8 +1661,14 @@
       <c r="G19" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1570,8 +1687,14 @@
       <c r="G20" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1590,8 +1713,14 @@
       <c r="G21" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1610,8 +1739,14 @@
       <c r="G22" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1631,8 +1766,14 @@
       <c r="G23" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1651,9 +1792,14 @@
       <c r="G24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1672,8 +1818,14 @@
       <c r="G25" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1692,8 +1844,14 @@
       <c r="G26" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1712,8 +1870,14 @@
       <c r="G27" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1732,8 +1896,14 @@
       <c r="G28" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1749,12 +1919,18 @@
       <c r="F29" s="4">
         <v>27</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="H29" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1766,14 +1942,20 @@
       <c r="E30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1790,8 +1972,14 @@
         <v>20</v>
       </c>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1810,11 +1998,15 @@
       <c r="G32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" s="10" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1833,11 +2025,15 @@
       <c r="G33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1856,8 +2052,14 @@
       <c r="G34" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1876,8 +2078,14 @@
       <c r="G35" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1896,8 +2104,14 @@
       <c r="G36" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1916,8 +2130,14 @@
       <c r="G37" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
@@ -1936,9 +2156,14 @@
       <c r="G38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
@@ -1957,8 +2182,14 @@
       <c r="G39" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
@@ -1977,8 +2208,14 @@
       <c r="G40" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>76</v>
       </c>
@@ -1997,48 +2234,66 @@
       <c r="G41" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="H41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="H42" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
@@ -2057,8 +2312,14 @@
       <c r="G44" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
@@ -2077,8 +2338,14 @@
       <c r="G45" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
@@ -2098,9 +2365,14 @@
       <c r="G46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
@@ -2120,9 +2392,14 @@
       <c r="G47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2142,9 +2419,14 @@
       <c r="G48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
@@ -2164,8 +2446,14 @@
       <c r="G49" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
@@ -2185,8 +2473,14 @@
       <c r="G50" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
@@ -2206,8 +2500,14 @@
       <c r="G51" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2227,11 +2527,15 @@
       <c r="G52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
@@ -2249,8 +2553,14 @@
         <v>7</v>
       </c>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
@@ -2268,11 +2578,15 @@
         <v>24</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="2:10" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:10" s="10" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2290,11 +2604,15 @@
         <v>25</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
@@ -2312,8 +2630,14 @@
         <v>19</v>
       </c>
       <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>111</v>
       </c>
@@ -2331,8 +2655,14 @@
         <v>12</v>
       </c>
       <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
@@ -2350,8 +2680,14 @@
         <v>40</v>
       </c>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
@@ -2368,8 +2704,14 @@
         <v>16</v>
       </c>
       <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2388,15 +2730,21 @@
       <c r="G60" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -2406,8 +2754,14 @@
         <v>4</v>
       </c>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2427,12 +2781,18 @@
       <c r="G62" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2447,12 +2807,18 @@
       <c r="G63" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="15" t="s">
         <v>128</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2467,12 +2833,18 @@
       <c r="G64" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2488,12 +2860,18 @@
       <c r="G65" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2508,12 +2886,18 @@
       <c r="G66" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -2528,8 +2912,14 @@
       <c r="G67" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
@@ -2548,8 +2938,14 @@
       <c r="G68" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
@@ -2568,8 +2964,14 @@
       <c r="G69" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>137</v>
       </c>
@@ -2589,8 +2991,14 @@
       <c r="G70" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>137</v>
       </c>
@@ -2610,8 +3018,14 @@
       <c r="G71" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
@@ -2630,8 +3044,14 @@
       <c r="G72" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>142</v>
       </c>
@@ -2649,8 +3069,14 @@
         <v>5</v>
       </c>
       <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>144</v>
       </c>
@@ -2668,9 +3094,15 @@
         <v>293</v>
       </c>
       <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
+      <c r="H74" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2682,14 +3114,20 @@
       <c r="E75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>5</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>149</v>
       </c>
@@ -2708,8 +3146,14 @@
       <c r="G76" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
@@ -2728,8 +3172,14 @@
       <c r="G77" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
@@ -2746,12 +3196,18 @@
         <v>3</v>
       </c>
       <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="2"/>
@@ -2762,12 +3218,18 @@
         <v>1</v>
       </c>
       <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D80" s="2"/>
@@ -2778,12 +3240,18 @@
         <v>3</v>
       </c>
       <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D81" s="2"/>
@@ -2794,12 +3262,18 @@
         <v>3</v>
       </c>
       <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D82" s="2"/>
@@ -2810,9 +3284,15 @@
         <v>3</v>
       </c>
       <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+      <c r="H82" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2824,14 +3304,20 @@
       <c r="E83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>1</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>162</v>
       </c>
@@ -2842,14 +3328,20 @@
         <v>2</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>162</v>
       </c>
@@ -2859,7 +3351,7 @@
       <c r="D85" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="17" t="s">
         <v>166</v>
       </c>
       <c r="F85" s="4">
@@ -2868,8 +3360,14 @@
       <c r="G85" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>168</v>
       </c>
@@ -2888,8 +3386,14 @@
       <c r="G86" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>169</v>
       </c>
@@ -2906,8 +3410,14 @@
         <v>22</v>
       </c>
       <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>169</v>
       </c>
@@ -2922,8 +3432,14 @@
         <v>12</v>
       </c>
       <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>173</v>
       </c>
@@ -2940,8 +3456,14 @@
         <v>25</v>
       </c>
       <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>173</v>
       </c>
@@ -2958,8 +3480,14 @@
         <v>26</v>
       </c>
       <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>173</v>
       </c>
@@ -2976,8 +3504,14 @@
         <v>26</v>
       </c>
       <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>173</v>
       </c>
@@ -2994,8 +3528,14 @@
         <v>16</v>
       </c>
       <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>173</v>
       </c>
@@ -3010,8 +3550,14 @@
         <v>12</v>
       </c>
       <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>173</v>
       </c>
@@ -3030,8 +3576,14 @@
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>183</v>
       </c>
@@ -3048,8 +3600,14 @@
       <c r="G95" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>183</v>
       </c>
@@ -3068,8 +3626,14 @@
       <c r="G96" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>188</v>
       </c>
@@ -3086,8 +3650,14 @@
       <c r="G97" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>188</v>
       </c>
@@ -3107,32 +3677,42 @@
       <c r="G98" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
+      <c r="H98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" s="15" t="s">
+      <c r="D99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="14">
         <f>6+4-1-1</f>
         <v>8</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>192</v>
       </c>
@@ -3151,33 +3731,41 @@
       <c r="G100" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="2:10" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="13" t="s">
+      <c r="H100" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="2:10" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="13">
         <v>0</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="15">
+      <c r="D101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="13">
         <v>0</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="12">
         <f>20</f>
         <v>20</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
+      <c r="H101" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J101" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
